--- a/SWAG Labs Data.xlsx
+++ b/SWAG Labs Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#Pramudhitya\Berijalan\Detail Training\QA\Katalon\Training\Tugas_2_Mobile_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51467C89-9235-491D-9DE0-50DF7613EF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243857AD-14CB-47B0-B838-82712DF58E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{053D1362-8BF4-4287-8E48-62579BF6F5A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -75,15 +75,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>wrongpass</t>
-  </si>
-  <si>
-    <t>wronguser</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>agad</t>
@@ -447,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AECEA88-2A9C-4215-8B1E-837FF563C8B1}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,8 +449,8 @@
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
@@ -504,13 +495,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>55242</v>
@@ -521,103 +512,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>55243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>55244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>55245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <v>55242</v>
       </c>
     </row>
   </sheetData>
